--- a/4_semestr/Excel/Контрольная_Работа_ЗБ-ПИ19-2_Малкеров_Г.А.xlsx
+++ b/4_semestr/Excel/Контрольная_Работа_ЗБ-ПИ19-2_Малкеров_Г.А.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Study\Univer_git\4_semestr\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Univer_study\4_semestr\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9D28C-1FB2-4BE1-AB55-58673E118003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FECF94-BF0D-4FA4-B4A9-8FDC1E1B3F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MGNT_Original" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">MGNT_TASK_PART1!$E$3:$E$313</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">MGNT_TASK_PART1!$E$3:$E$313</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">MGNT_TASK_PART1!$E$3:$E$313</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MGNT_TASK_PART1!$A$1:$H$313</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -766,7 +767,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -837,10 +838,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1749,55 +1750,55 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7.902857191</c:v>
+                  <c:v>7,902857191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.947343632</c:v>
+                  <c:v>7,947343632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.991830073</c:v>
+                  <c:v>7,991830073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.036316514</c:v>
+                  <c:v>8,036316514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.080802955</c:v>
+                  <c:v>8,080802955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.125289396</c:v>
+                  <c:v>8,125289396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.169775837</c:v>
+                  <c:v>8,169775837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.214262278</c:v>
+                  <c:v>8,214262278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.258748719</c:v>
+                  <c:v>8,258748719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.30323516</c:v>
+                  <c:v>8,30323516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.347721601</c:v>
+                  <c:v>8,347721601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.392208042</c:v>
+                  <c:v>8,392208042</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.436694483</c:v>
+                  <c:v>8,436694483</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.481180924</c:v>
+                  <c:v>8,481180924</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.525667364</c:v>
+                  <c:v>8,525667364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.570153805</c:v>
+                  <c:v>8,570153805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.614640246</c:v>
+                  <c:v>8,614640246</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Еще</c:v>
@@ -2161,55 +2162,55 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>10.42094116</c:v>
+                  <c:v>10,42094116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.64937431</c:v>
+                  <c:v>10,64937431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.87780746</c:v>
+                  <c:v>10,87780746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.1062406</c:v>
+                  <c:v>11,1062406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.33467375</c:v>
+                  <c:v>11,33467375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5631069</c:v>
+                  <c:v>11,5631069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.79154004</c:v>
+                  <c:v>11,79154004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.01997319</c:v>
+                  <c:v>12,01997319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.24840634</c:v>
+                  <c:v>12,24840634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.47683948</c:v>
+                  <c:v>12,47683948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.70527263</c:v>
+                  <c:v>12,70527263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.93370578</c:v>
+                  <c:v>12,93370578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.16213893</c:v>
+                  <c:v>13,16213893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.39057207</c:v>
+                  <c:v>13,39057207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.61900522</c:v>
+                  <c:v>13,61900522</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.84743837</c:v>
+                  <c:v>13,84743837</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.07587151</c:v>
+                  <c:v>14,07587151</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Еще</c:v>
@@ -2520,6 +2521,40 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{43E8D153-94F0-4DF7-B8E8-3FBC8625ED6B}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2681,6 +2716,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5249,6 +5324,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5443,6 +6026,84 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="10058400" y="17549812"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>350212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>583046</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63114</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Диаграмма 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C6FC33-8B46-44BB-8F1B-E8828A8CF2BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12492182" y="2476884"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -26091,9 +26752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD6BFC-4D25-4B15-9033-11E5ACDFDAD8}">
   <dimension ref="A1:W313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W99" sqref="W99"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/4_semestr/Excel/Контрольная_Работа_ЗБ-ПИ19-2_Малкеров_Г.А.xlsx
+++ b/4_semestr/Excel/Контрольная_Работа_ЗБ-ПИ19-2_Малкеров_Г.А.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Univer_study\4_semestr\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Study\Univer_git\4_semestr\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FECF94-BF0D-4FA4-B4A9-8FDC1E1B3F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4D8A54-8047-4BBA-B7CE-AA112030782C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32520" yWindow="5055" windowWidth="13710" windowHeight="11205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MGNT_Original" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">MGNT_TASK_PART1!$E$3:$E$313</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">MGNT_TASK_PART1!$E$3:$E$313</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">MGNT_TASK_PART1!$E$3:$E$313</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MGNT_TASK_PART1!$A$1:$H$313</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="240">
   <si>
     <t>&lt;TICKER&gt;</t>
   </si>
@@ -760,6 +759,9 @@
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>в</t>
   </si>
 </sst>
 </file>
@@ -1750,55 +1752,55 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7,902857191</c:v>
+                  <c:v>7.902857191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7,947343632</c:v>
+                  <c:v>7.947343632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7,991830073</c:v>
+                  <c:v>7.991830073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8,036316514</c:v>
+                  <c:v>8.036316514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8,080802955</c:v>
+                  <c:v>8.080802955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8,125289396</c:v>
+                  <c:v>8.125289396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8,169775837</c:v>
+                  <c:v>8.169775837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8,214262278</c:v>
+                  <c:v>8.214262278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8,258748719</c:v>
+                  <c:v>8.258748719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8,30323516</c:v>
+                  <c:v>8.30323516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8,347721601</c:v>
+                  <c:v>8.347721601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8,392208042</c:v>
+                  <c:v>8.392208042</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8,436694483</c:v>
+                  <c:v>8.436694483</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8,481180924</c:v>
+                  <c:v>8.481180924</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8,525667364</c:v>
+                  <c:v>8.525667364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8,570153805</c:v>
+                  <c:v>8.570153805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8,614640246</c:v>
+                  <c:v>8.614640246</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Еще</c:v>
@@ -2162,55 +2164,55 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>10,42094116</c:v>
+                  <c:v>10.42094116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10,64937431</c:v>
+                  <c:v>10.64937431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10,87780746</c:v>
+                  <c:v>10.87780746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11,1062406</c:v>
+                  <c:v>11.1062406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11,33467375</c:v>
+                  <c:v>11.33467375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11,5631069</c:v>
+                  <c:v>11.5631069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11,79154004</c:v>
+                  <c:v>11.79154004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12,01997319</c:v>
+                  <c:v>12.01997319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12,24840634</c:v>
+                  <c:v>12.24840634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12,47683948</c:v>
+                  <c:v>12.47683948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12,70527263</c:v>
+                  <c:v>12.70527263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12,93370578</c:v>
+                  <c:v>12.93370578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13,16213893</c:v>
+                  <c:v>13.16213893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13,39057207</c:v>
+                  <c:v>13.39057207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13,61900522</c:v>
+                  <c:v>13.61900522</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13,84743837</c:v>
+                  <c:v>13.84743837</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14,07587151</c:v>
+                  <c:v>14.07587151</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Еще</c:v>
@@ -2526,7 +2528,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6103,8 +6105,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12492182" y="2476884"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="12532687" y="2452254"/>
+              <a:ext cx="4595284" cy="2716260"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26754,7 +26756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E313"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26964,6 +26966,9 @@
       <c r="G7">
         <v>12.313005923748317</v>
       </c>
+      <c r="I7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
